--- a/Client/public/RM_1.xlsx
+++ b/Client/public/RM_1.xlsx
@@ -2161,7 +2161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2172,6 +2172,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2208,13 +2214,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2559,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>24023.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>20512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>37572.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>10432.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>21920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>17169.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>10881.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>11712.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>8863</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>16102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>2226.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>17369.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>14627.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
